--- a/tools/caat-helper/src/data/excel/SIerData_sample.xlsx
+++ b/tools/caat-helper/src/data/excel/SIerData_sample.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Old_data\Downloads\temp_delete\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F00B348-0323-44ED-BE26-A18A6CD10F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="admin" sheetId="1" r:id="rId1"/>
-    <sheet name="facility_type" sheetId="2" r:id="rId2"/>
-    <sheet name="customer" sheetId="3" r:id="rId3"/>
-    <sheet name="device_type" sheetId="4" r:id="rId4"/>
-    <sheet name="facility" sheetId="5" r:id="rId5"/>
-    <sheet name="device" sheetId="6" r:id="rId6"/>
+    <sheet r:id="rId1" sheetId="1" name="admin"/>
+    <sheet r:id="rId2" sheetId="2" name="facility_type"/>
+    <sheet r:id="rId3" sheetId="3" name="customer"/>
+    <sheet r:id="rId4" sheetId="4" name="device_type"/>
+    <sheet r:id="rId5" sheetId="5" name="facility"/>
+    <sheet r:id="rId6" sheetId="6" name="device"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>device_name</t>
   </si>
@@ -42,6 +36,33 @@
     <t>device_type_name</t>
   </si>
   <si>
+    <t>facility_prefecture</t>
+  </si>
+  <si>
+    <t>facility_municipality</t>
+  </si>
+  <si>
+    <t>DEVICE_SZP123S_0001</t>
+  </si>
+  <si>
+    <t>Aid-00010004-0000-2000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>顧客A</t>
+  </si>
+  <si>
+    <t>パーキング1</t>
+  </si>
+  <si>
+    <t>GarageDevice</t>
+  </si>
+  <si>
+    <t>神奈川県</t>
+  </si>
+  <si>
+    <t>厚木市</t>
+  </si>
+  <si>
     <t>prefecture</t>
   </si>
   <si>
@@ -57,12 +78,24 @@
     <t>facility_type</t>
   </si>
   <si>
+    <t>2024-12-01T09:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2025-12-31T09:00:00+00:00</t>
+  </si>
+  <si>
+    <t>Parking_Type1</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
     <t>sample_image_path</t>
   </si>
   <si>
+    <t>sample-images/garage.jpeg</t>
+  </si>
+  <si>
     <t>admin_login_id</t>
   </si>
   <si>
@@ -81,67 +114,35 @@
     <t>application_id</t>
   </si>
   <si>
+    <t>test-caat-dev</t>
+  </si>
+  <si>
+    <t>https://auth.aitrios.sony-semicon.com/oauth2/default/v1/token</t>
+  </si>
+  <si>
+    <t>https://console.aitrios.sony-semicon.com/api/v1</t>
+  </si>
+  <si>
+    <t>aum12d4cp2jbcfl12112</t>
+  </si>
+  <si>
+    <t>df457d4cp2jbcfl12154</t>
+  </si>
+  <si>
     <t>login_id</t>
   </si>
   <si>
     <t>admin_password</t>
   </si>
   <si>
-    <t>Parking_Type1</t>
-  </si>
-  <si>
-    <t>顧客A</t>
-  </si>
-  <si>
-    <t>test-caat-dev</t>
-  </si>
-  <si>
     <t>ajatmd11Arug500TAeCne</t>
-  </si>
-  <si>
-    <t>https://auth.aitrios.sony-semicon.com/oauth2/default/v1/token</t>
-  </si>
-  <si>
-    <t>https://console.aitrios.sony-semicon.com/api/v1</t>
-  </si>
-  <si>
-    <t>aum12d4cp2jbcfl12112</t>
-  </si>
-  <si>
-    <t>df457d4cp2jbcfl12154</t>
-  </si>
-  <si>
-    <t>GarageDevice</t>
-  </si>
-  <si>
-    <t>sample-images/garage.jpeg</t>
-  </si>
-  <si>
-    <t>パーキング1</t>
-  </si>
-  <si>
-    <t>神奈川県</t>
-  </si>
-  <si>
-    <t>厚木市</t>
-  </si>
-  <si>
-    <t>2024-06-28T09:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2024-12-14T09:00:00+00:00</t>
-  </si>
-  <si>
-    <t>DEVICE_SZP123S_0001</t>
-  </si>
-  <si>
-    <t>Aid-00010004-0000-2000-0000-000000000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,15 +152,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF292827"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -196,37 +197,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -237,10 +236,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -278,71 +277,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -370,7 +369,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -393,11 +392,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -406,13 +405,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -422,7 +421,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -431,7 +430,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -440,7 +439,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -448,10 +447,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -516,7 +515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -526,38 +525,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="4" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="18.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -567,26 +565,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="4" width="16.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
     </row>
   </sheetData>
@@ -595,7 +593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -605,60 +603,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="73.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="4" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="54.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="44.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="73.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -669,12 +667,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -684,44 +681,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="4" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="100.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="14.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -732,7 +729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -742,152 +739,152 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="4" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="36.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="15.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -902,24 +899,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="4" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="39.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="19.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,92 +928,122 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tools/caat-helper/src/data/excel/SIerData_sample.xlsx
+++ b/tools/caat-helper/src/data/excel/SIerData_sample.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50120i1112\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887F0E50-3A4A-4500-962D-C58A7A9C1A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="admin"/>
-    <sheet r:id="rId2" sheetId="2" name="facility_type"/>
-    <sheet r:id="rId3" sheetId="3" name="customer"/>
-    <sheet r:id="rId4" sheetId="4" name="device_type"/>
-    <sheet r:id="rId5" sheetId="5" name="facility"/>
-    <sheet r:id="rId6" sheetId="6" name="device"/>
+    <sheet name="admin" sheetId="1" r:id="rId1"/>
+    <sheet name="facility_type" sheetId="2" r:id="rId2"/>
+    <sheet name="customer" sheetId="3" r:id="rId3"/>
+    <sheet name="device_type" sheetId="4" r:id="rId4"/>
+    <sheet name="facility" sheetId="5" r:id="rId5"/>
+    <sheet name="device" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>device_name</t>
   </si>
@@ -141,8 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,34 +203,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -236,10 +240,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -277,71 +281,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -369,7 +373,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -392,11 +396,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -405,13 +409,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -421,7 +425,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -430,7 +434,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -439,7 +443,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -447,10 +451,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -515,21 +519,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -537,7 +541,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -545,7 +549,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
@@ -555,36 +559,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
   </sheetData>
@@ -593,7 +604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -603,16 +614,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="54.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="44.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="73.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -635,7 +646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -656,7 +667,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -671,22 +682,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="100.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="16.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -696,8 +708,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -707,18 +722,21 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -729,26 +747,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="33.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,8 +788,11 @@
       <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="H1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -793,8 +814,11 @@
       <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="H2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -803,7 +827,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -812,7 +836,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -821,7 +845,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -830,7 +854,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -839,7 +863,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -848,7 +872,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -857,7 +881,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -866,7 +890,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -875,7 +899,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -884,7 +908,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -899,26 +923,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="39.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -940,8 +965,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="H1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +991,11 @@
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="H2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -973,7 +1004,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -982,7 +1013,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -991,7 +1022,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1000,7 +1031,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1009,7 +1040,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1018,7 +1049,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1027,7 +1058,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1036,7 +1067,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1047,5 +1078,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>